--- a/data/E-Wallet-Service/transaction-service_structure.xlsx
+++ b/data/E-Wallet-Service/transaction-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="271">
   <si>
     <t>Class Name</t>
   </si>
@@ -555,52 +555,64 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>amount</t>
+  </si>
+  <si>
     <t>transactionId</t>
   </si>
   <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>transactionTime</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>receiver</t>
   </si>
   <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
     <t>sender</t>
   </si>
   <si>
-    <t>transactionTime</t>
+    <t>NULL_OR_EMPTY</t>
+  </si>
+  <si>
+    <t>NULL_OR_EMPTY_MESSAGE</t>
+  </si>
+  <si>
+    <t>TO_DATE_BEFORE_FROM_DATE_MESSAGE</t>
+  </si>
+  <si>
+    <t>DATE_NOT_PARSABLE</t>
+  </si>
+  <si>
+    <t>TO_DATE_BEFORE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>GENERIC_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>GENERIC_NOT_FOUND_MESSAGE</t>
+  </si>
+  <si>
+    <t>GENERIC_ERROR</t>
+  </si>
+  <si>
+    <t>OK_STATUS</t>
   </si>
   <si>
     <t>GENERIC_NOT_FOUND</t>
   </si>
   <si>
-    <t>GENERIC_NOT_FOUND_MESSAGE</t>
-  </si>
-  <si>
-    <t>GENERIC_ERROR</t>
-  </si>
-  <si>
-    <t>NULL_OR_EMPTY_MESSAGE</t>
-  </si>
-  <si>
-    <t>TO_DATE_BEFORE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>TO_DATE_BEFORE_FROM_DATE_MESSAGE</t>
-  </si>
-  <si>
-    <t>NULL_OR_EMPTY</t>
-  </si>
-  <si>
-    <t>DATE_NOT_PARSABLE</t>
+    <t>DATE_NOT_PARSABLE_MESSAGE</t>
+  </si>
+  <si>
+    <t>CLIENT_ERROR</t>
   </si>
   <si>
     <t>OK_STATUS_MESSAGE</t>
@@ -609,28 +621,19 @@
     <t>USER_NOT_FOUND</t>
   </si>
   <si>
-    <t>GENERIC_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>DATE_NOT_PARSABLE_MESSAGE</t>
-  </si>
-  <si>
-    <t>OK_STATUS</t>
-  </si>
-  <si>
-    <t>CLIENT_ERROR</t>
-  </si>
-  <si>
     <t>transactionService</t>
   </si>
   <si>
+    <t>EMAIL_ID</t>
+  </si>
+  <si>
+    <t>EMAIL_MESSAGE</t>
+  </si>
+  <si>
     <t>EMAIL_TO_USER</t>
   </si>
   <si>
-    <t>EMAIL_ID</t>
-  </si>
-  <si>
-    <t>EMAIL_MESSAGE</t>
+    <t>code</t>
   </si>
   <si>
     <t>message</t>
@@ -639,7 +642,10 @@
     <t>data</t>
   </si>
   <si>
-    <t>code</t>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>SUCCESSFUL</t>
   </si>
   <si>
     <t>FAILED</t>
@@ -648,81 +654,75 @@
     <t>PENDING</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>SUCCESSFUL</t>
-  </si>
-  <si>
     <t>LOG</t>
   </si>
   <si>
+    <t>errorResponse</t>
+  </si>
+  <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>$assertionsDisabled</t>
-  </si>
-  <si>
-    <t>errorResponse</t>
+    <t>TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
   <si>
     <t>RECEIVER</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
     <t>SENDER</t>
   </si>
   <si>
-    <t>TRANSACTION_ID</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
     <t>KAFKA_CONSUMER_ADD_MONEY_TRANSACTION_GROUP_ID</t>
   </si>
   <si>
     <t>KAFKA_PRODUCER_SEND_EMAIL_TOPIC</t>
   </si>
   <si>
+    <t>KAFKA_CONSUMER_ADD_MONEY_TRANSACTION_TOPIC</t>
+  </si>
+  <si>
+    <t>KAFKA_CONSUMER_SEND_MONEY_TRANSACTION_GROUP_ID</t>
+  </si>
+  <si>
+    <t>KAFKA_PRODUCER_SEND_MONEY_TOPIC</t>
+  </si>
+  <si>
     <t>KAFKA_PRODUCER_ADD_MONEY_TOPIC</t>
   </si>
   <si>
     <t>KAFKA_CONSUMER_SEND_MONEY_TRANSACTION_TOPIC</t>
   </si>
   <si>
-    <t>KAFKA_CONSUMER_SEND_MONEY_TRANSACTION_GROUP_ID</t>
-  </si>
-  <si>
-    <t>KAFKA_PRODUCER_SEND_MONEY_TOPIC</t>
-  </si>
-  <si>
-    <t>KAFKA_CONSUMER_ADD_MONEY_TRANSACTION_TOPIC</t>
-  </si>
-  <si>
     <t>restTemplate</t>
   </si>
   <si>
+    <t>transactionRepository</t>
+  </si>
+  <si>
+    <t>getUserDetailsUri</t>
+  </si>
+  <si>
+    <t>kafkaTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
     <t>objectMapper</t>
   </si>
   <si>
-    <t>getUserDetailsUri</t>
-  </si>
-  <si>
-    <t>transactionRepository</t>
-  </si>
-  <si>
-    <t>kafkaTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -822,10 +822,16 @@
     <t>62</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>10</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>11</t>
@@ -7233,7 +7239,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7255,10 +7261,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
@@ -7266,7 +7272,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>262</v>
@@ -7277,7 +7283,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>262</v>
@@ -7288,7 +7294,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>262</v>
@@ -7299,7 +7305,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>262</v>
@@ -7310,7 +7316,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>262</v>
@@ -7321,7 +7327,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>262</v>
@@ -7332,7 +7338,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>262</v>
@@ -7343,10 +7349,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11">
@@ -7354,7 +7360,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>256</v>
@@ -7362,10 +7368,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>256</v>
@@ -7376,7 +7382,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>256</v>
@@ -7387,7 +7393,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>256</v>
@@ -7398,7 +7404,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>256</v>
@@ -7409,7 +7415,7 @@
         <v>36</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>256</v>
@@ -7420,7 +7426,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>256</v>
@@ -7428,10 +7434,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>262</v>
@@ -7439,24 +7445,24 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21">
@@ -7464,10 +7470,10 @@
         <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
@@ -7475,10 +7481,10 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23">
@@ -7486,40 +7492,40 @@
         <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>256</v>
@@ -7527,10 +7533,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>256</v>
@@ -7541,7 +7547,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>256</v>
@@ -7552,7 +7558,7 @@
         <v>48</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>256</v>
@@ -7563,7 +7569,7 @@
         <v>48</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>256</v>
@@ -7574,7 +7580,7 @@
         <v>48</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>256</v>
@@ -7585,7 +7591,7 @@
         <v>48</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>256</v>
@@ -7596,7 +7602,7 @@
         <v>48</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>256</v>
@@ -7604,32 +7610,32 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>256</v>
@@ -7637,32 +7643,32 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>256</v>
@@ -7673,10 +7679,10 @@
         <v>18</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41">
@@ -7684,10 +7690,10 @@
         <v>18</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42">
@@ -7695,7 +7701,7 @@
         <v>18</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>256</v>
@@ -7706,7 +7712,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>256</v>
@@ -7717,7 +7723,7 @@
         <v>18</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>256</v>
@@ -7728,7 +7734,7 @@
         <v>18</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>256</v>
@@ -7739,7 +7745,7 @@
         <v>18</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>256</v>
@@ -7750,7 +7756,7 @@
         <v>18</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>256</v>
@@ -7761,7 +7767,7 @@
         <v>18</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>256</v>
@@ -7772,7 +7778,7 @@
         <v>18</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>256</v>
@@ -7783,7 +7789,7 @@
         <v>18</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>256</v>
@@ -7794,7 +7800,7 @@
         <v>18</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>256</v>
@@ -7805,7 +7811,7 @@
         <v>18</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>256</v>
@@ -7816,7 +7822,7 @@
         <v>18</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>256</v>
@@ -7824,21 +7830,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>256</v>
@@ -7846,10 +7852,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>256</v>
@@ -7857,10 +7863,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>256</v>
@@ -7868,10 +7874,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>256</v>
@@ -7879,54 +7885,54 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>256</v>
@@ -7934,10 +7940,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>256</v>
@@ -7945,21 +7951,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>256</v>
@@ -7967,10 +7973,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>256</v>
@@ -7978,54 +7984,54 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>256</v>
@@ -8033,10 +8039,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>256</v>
@@ -8044,21 +8050,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>256</v>
@@ -8066,32 +8072,32 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>256</v>
@@ -8099,54 +8105,54 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>240</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>262</v>
@@ -8154,43 +8160,43 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>256</v>
@@ -8198,10 +8204,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>256</v>
@@ -8209,10 +8215,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>256</v>
@@ -8220,43 +8226,43 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>256</v>
@@ -8264,98 +8270,98 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>256</v>
@@ -8363,10 +8369,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>256</v>
@@ -8377,7 +8383,7 @@
         <v>57</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>256</v>
@@ -8385,54 +8391,54 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>256</v>
@@ -8440,10 +8446,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>256</v>
@@ -8451,10 +8457,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>256</v>
@@ -8462,10 +8468,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>256</v>
@@ -8473,10 +8479,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>256</v>
@@ -8484,10 +8490,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>256</v>
@@ -8495,10 +8501,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>256</v>
@@ -8506,10 +8512,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>256</v>
@@ -8517,10 +8523,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>256</v>
@@ -8528,98 +8534,98 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>256</v>
@@ -8627,10 +8633,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>256</v>
@@ -8638,21 +8644,21 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>256</v>
@@ -8660,65 +8666,65 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>257</v>
@@ -8726,32 +8732,32 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>240</v>
@@ -8759,10 +8765,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>262</v>
@@ -8770,10 +8776,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>262</v>
@@ -8781,32 +8787,32 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>256</v>
@@ -8814,101 +8820,288 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>238</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="B152" t="s" s="0">
+      <c r="B164" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B169" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="C152" t="s" s="0">
-        <v>268</v>
+      <c r="C169" t="s" s="0">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -9144,7 +9337,7 @@
         <v>112</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -9186,7 +9379,7 @@
         <v>112</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -9200,7 +9393,7 @@
         <v>112</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -9214,7 +9407,7 @@
         <v>112</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -9250,7 +9443,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>112</v>
@@ -9264,7 +9457,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>112</v>
@@ -9278,13 +9471,13 @@
         <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -9292,7 +9485,7 @@
         <v>45</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>112</v>
@@ -9320,13 +9513,13 @@
         <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -9354,7 +9547,7 @@
         <v>112</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -9362,7 +9555,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>112</v>
@@ -9382,7 +9575,7 @@
         <v>112</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -9390,7 +9583,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>112</v>
@@ -9404,7 +9597,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>112</v>
@@ -9418,13 +9611,13 @@
         <v>18</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -9432,13 +9625,13 @@
         <v>18</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -9452,7 +9645,7 @@
         <v>112</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -9466,7 +9659,7 @@
         <v>112</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -9536,7 +9729,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -9550,7 +9743,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -9592,7 +9785,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -9620,7 +9813,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -9634,7 +9827,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
@@ -9662,7 +9855,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -9676,7 +9869,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -9690,7 +9883,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -9704,7 +9897,7 @@
         <v>112</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -9712,13 +9905,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -9788,7 +9981,7 @@
         <v>15</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -9799,10 +9992,10 @@
         <v>204</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -9813,10 +10006,10 @@
         <v>205</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -9824,7 +10017,7 @@
         <v>102</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>112</v>
@@ -9838,7 +10031,7 @@
         <v>102</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>112</v>
@@ -9852,7 +10045,7 @@
         <v>102</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>112</v>
@@ -9866,7 +10059,7 @@
         <v>102</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>112</v>
@@ -9880,7 +10073,7 @@
         <v>102</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>112</v>
@@ -9894,7 +10087,7 @@
         <v>102</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>112</v>
@@ -9908,7 +10101,7 @@
         <v>102</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>112</v>
@@ -9922,7 +10115,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>112</v>
@@ -9936,7 +10129,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>112</v>
@@ -9964,13 +10157,13 @@
         <v>57</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
@@ -9978,7 +10171,7 @@
         <v>57</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>112</v>
@@ -9992,7 +10185,7 @@
         <v>57</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>112</v>
@@ -10006,13 +10199,13 @@
         <v>57</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -10023,10 +10216,10 @@
         <v>206</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66">
@@ -10051,10 +10244,10 @@
         <v>208</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
@@ -10076,13 +10269,13 @@
         <v>46</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
@@ -10090,7 +10283,7 @@
         <v>46</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>112</v>
@@ -10104,13 +10297,13 @@
         <v>46</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -10118,7 +10311,7 @@
         <v>46</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>112</v>
@@ -10132,7 +10325,7 @@
         <v>54</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>112</v>
@@ -10146,13 +10339,13 @@
         <v>54</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -10160,13 +10353,13 @@
         <v>54</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -10174,7 +10367,7 @@
         <v>54</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>112</v>
@@ -10205,10 +10398,10 @@
         <v>211</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>212</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79">
@@ -10216,7 +10409,7 @@
         <v>134</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>15</v>
@@ -10230,13 +10423,13 @@
         <v>134</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81">
@@ -10244,13 +10437,13 @@
         <v>134</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>71</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82">
@@ -10328,13 +10521,13 @@
         <v>100</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -10342,13 +10535,13 @@
         <v>100</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -10356,13 +10549,13 @@
         <v>100</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
@@ -10488,7 +10681,7 @@
         <v>112</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>88</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
@@ -10530,7 +10723,7 @@
         <v>112</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>157</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102">
@@ -10538,13 +10731,13 @@
         <v>162</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>232</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -12459,7 +12652,7 @@
         <v>106</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>238</v>
@@ -12476,7 +12669,7 @@
         <v>106</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>238</v>
@@ -12493,7 +12686,7 @@
         <v>106</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>238</v>

--- a/data/E-Wallet-Service/transaction-service_structure.xlsx
+++ b/data/E-Wallet-Service/transaction-service_structure.xlsx
@@ -555,172 +555,172 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>receiver</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>transactionId</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>amount</t>
   </si>
   <si>
-    <t>transactionId</t>
+    <t>transactionTime</t>
   </si>
   <si>
     <t>purpose</t>
   </si>
   <si>
-    <t>transactionTime</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
-    <t>receiver</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>sender</t>
+    <t>GENERIC_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>DATE_NOT_PARSABLE</t>
+  </si>
+  <si>
+    <t>NULL_OR_EMPTY_MESSAGE</t>
+  </si>
+  <si>
+    <t>DATE_NOT_PARSABLE_MESSAGE</t>
+  </si>
+  <si>
+    <t>TO_DATE_BEFORE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>OK_STATUS_MESSAGE</t>
+  </si>
+  <si>
+    <t>USER_NOT_FOUND</t>
   </si>
   <si>
     <t>NULL_OR_EMPTY</t>
   </si>
   <si>
-    <t>NULL_OR_EMPTY_MESSAGE</t>
+    <t>OK_STATUS</t>
+  </si>
+  <si>
+    <t>GENERIC_NOT_FOUND</t>
+  </si>
+  <si>
+    <t>CLIENT_ERROR</t>
+  </si>
+  <si>
+    <t>GENERIC_ERROR</t>
   </si>
   <si>
     <t>TO_DATE_BEFORE_FROM_DATE_MESSAGE</t>
   </si>
   <si>
-    <t>DATE_NOT_PARSABLE</t>
-  </si>
-  <si>
-    <t>TO_DATE_BEFORE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>GENERIC_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>GENERIC_NOT_FOUND_MESSAGE</t>
   </si>
   <si>
-    <t>GENERIC_ERROR</t>
-  </si>
-  <si>
-    <t>OK_STATUS</t>
-  </si>
-  <si>
-    <t>GENERIC_NOT_FOUND</t>
-  </si>
-  <si>
-    <t>DATE_NOT_PARSABLE_MESSAGE</t>
-  </si>
-  <si>
-    <t>CLIENT_ERROR</t>
-  </si>
-  <si>
-    <t>OK_STATUS_MESSAGE</t>
-  </si>
-  <si>
-    <t>USER_NOT_FOUND</t>
-  </si>
-  <si>
     <t>transactionService</t>
   </si>
   <si>
+    <t>EMAIL_TO_USER</t>
+  </si>
+  <si>
     <t>EMAIL_ID</t>
   </si>
   <si>
     <t>EMAIL_MESSAGE</t>
   </si>
   <si>
-    <t>EMAIL_TO_USER</t>
+    <t>message</t>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
+    <t>SUCCESSFUL</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>SUCCESSFUL</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t>PENDING</t>
   </si>
   <si>
     <t>LOG</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>errorResponse</t>
   </si>
   <si>
-    <t>$assertionsDisabled</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SENDER</t>
   </si>
   <si>
     <t>TRANSACTION_ID</t>
   </si>
   <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
     <t>RECEIVER</t>
   </si>
   <si>
-    <t>SENDER</t>
+    <t>KAFKA_PRODUCER_SEND_EMAIL_TOPIC</t>
+  </si>
+  <si>
+    <t>KAFKA_CONSUMER_SEND_MONEY_TRANSACTION_GROUP_ID</t>
+  </si>
+  <si>
+    <t>KAFKA_PRODUCER_ADD_MONEY_TOPIC</t>
+  </si>
+  <si>
+    <t>KAFKA_CONSUMER_SEND_MONEY_TRANSACTION_TOPIC</t>
+  </si>
+  <si>
+    <t>KAFKA_PRODUCER_SEND_MONEY_TOPIC</t>
+  </si>
+  <si>
+    <t>KAFKA_CONSUMER_ADD_MONEY_TRANSACTION_TOPIC</t>
   </si>
   <si>
     <t>KAFKA_CONSUMER_ADD_MONEY_TRANSACTION_GROUP_ID</t>
   </si>
   <si>
-    <t>KAFKA_PRODUCER_SEND_EMAIL_TOPIC</t>
-  </si>
-  <si>
-    <t>KAFKA_CONSUMER_ADD_MONEY_TRANSACTION_TOPIC</t>
-  </si>
-  <si>
-    <t>KAFKA_CONSUMER_SEND_MONEY_TRANSACTION_GROUP_ID</t>
-  </si>
-  <si>
-    <t>KAFKA_PRODUCER_SEND_MONEY_TOPIC</t>
-  </si>
-  <si>
-    <t>KAFKA_PRODUCER_ADD_MONEY_TOPIC</t>
-  </si>
-  <si>
-    <t>KAFKA_CONSUMER_SEND_MONEY_TRANSACTION_TOPIC</t>
+    <t>transactionRepository</t>
+  </si>
+  <si>
+    <t>getUserDetailsUri</t>
   </si>
   <si>
     <t>restTemplate</t>
   </si>
   <si>
-    <t>transactionRepository</t>
-  </si>
-  <si>
-    <t>getUserDetailsUri</t>
+    <t>objectMapper</t>
   </si>
   <si>
     <t>kafkaTemplate</t>
   </si>
   <si>
     <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>objectMapper</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -9337,7 +9337,7 @@
         <v>112</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -9435,7 +9435,7 @@
         <v>112</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -9443,7 +9443,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>112</v>
@@ -9457,7 +9457,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>112</v>
@@ -9477,7 +9477,7 @@
         <v>112</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -9485,7 +9485,7 @@
         <v>45</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>112</v>
@@ -9499,7 +9499,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>112</v>
@@ -9513,13 +9513,13 @@
         <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -9527,7 +9527,7 @@
         <v>48</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>112</v>
@@ -9541,13 +9541,13 @@
         <v>48</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -9555,7 +9555,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>112</v>
@@ -9569,13 +9569,13 @@
         <v>48</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -9583,7 +9583,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>112</v>
@@ -9597,7 +9597,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>112</v>
@@ -9611,7 +9611,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>112</v>
@@ -9625,7 +9625,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>112</v>
@@ -9653,13 +9653,13 @@
         <v>18</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -9673,7 +9673,7 @@
         <v>112</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -9681,7 +9681,7 @@
         <v>18</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>112</v>
@@ -9701,7 +9701,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -9715,7 +9715,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -9743,7 +9743,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -9841,7 +9841,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -9891,13 +9891,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -9911,7 +9911,7 @@
         <v>112</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -9981,7 +9981,7 @@
         <v>15</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -9995,7 +9995,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -10017,7 +10017,7 @@
         <v>102</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>112</v>
@@ -10031,7 +10031,7 @@
         <v>102</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>112</v>
@@ -10045,7 +10045,7 @@
         <v>102</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>112</v>
@@ -10059,7 +10059,7 @@
         <v>102</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>112</v>
@@ -10073,13 +10073,13 @@
         <v>102</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -10087,13 +10087,13 @@
         <v>102</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
@@ -10101,7 +10101,7 @@
         <v>102</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>112</v>
@@ -10115,7 +10115,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>112</v>
@@ -10129,7 +10129,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>112</v>
@@ -10143,7 +10143,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>112</v>
@@ -10157,13 +10157,13 @@
         <v>57</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -10171,7 +10171,7 @@
         <v>57</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>112</v>
@@ -10185,7 +10185,7 @@
         <v>57</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>112</v>
@@ -10199,13 +10199,13 @@
         <v>57</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -10216,10 +10216,10 @@
         <v>206</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
@@ -10244,10 +10244,10 @@
         <v>208</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68">
@@ -10269,13 +10269,13 @@
         <v>46</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
@@ -10283,7 +10283,7 @@
         <v>46</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>112</v>
@@ -10297,7 +10297,7 @@
         <v>46</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>112</v>
@@ -10311,13 +10311,13 @@
         <v>46</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
@@ -10325,7 +10325,7 @@
         <v>54</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>112</v>
@@ -10339,7 +10339,7 @@
         <v>54</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>112</v>
@@ -10353,7 +10353,7 @@
         <v>54</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>112</v>
@@ -10367,7 +10367,7 @@
         <v>54</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>112</v>
@@ -10398,10 +10398,10 @@
         <v>211</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>71</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79">
@@ -10409,7 +10409,7 @@
         <v>134</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>15</v>
@@ -10423,13 +10423,13 @@
         <v>134</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81">
@@ -10437,13 +10437,13 @@
         <v>134</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>214</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82">
@@ -10521,7 +10521,7 @@
         <v>100</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>112</v>
@@ -10535,13 +10535,13 @@
         <v>100</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
@@ -10549,13 +10549,13 @@
         <v>100</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -10667,7 +10667,7 @@
         <v>112</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>86</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
@@ -10681,7 +10681,7 @@
         <v>112</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>157</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -10689,13 +10689,13 @@
         <v>162</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100">
@@ -10703,13 +10703,13 @@
         <v>162</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101">
@@ -10717,13 +10717,13 @@
         <v>162</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>231</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102">
@@ -10731,13 +10731,13 @@
         <v>162</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>88</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -12669,7 +12669,7 @@
         <v>106</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>238</v>
